--- a/StructureDefinition-cdm-condition.xlsx
+++ b/StructureDefinition-cdm-condition.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="382">
   <si>
     <t>Path</t>
   </si>
@@ -357,9 +357,6 @@
   </si>
   <si>
     <t>Problem type code</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>problemPriority</t>
@@ -2512,7 +2509,7 @@
         <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2601,7 +2598,7 @@
         <v>98</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>42</v>
@@ -2623,13 +2620,13 @@
         <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2718,7 +2715,7 @@
         <v>98</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>42</v>
@@ -2740,13 +2737,13 @@
         <v>42</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2835,7 +2832,7 @@
         <v>98</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>42</v>
@@ -2857,13 +2854,13 @@
         <v>42</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>118</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2949,11 +2946,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2975,16 +2972,16 @@
         <v>99</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>42</v>
@@ -3033,7 +3030,7 @@
         <v>42</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
@@ -3068,7 +3065,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3091,19 +3088,19 @@
         <v>54</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>42</v>
@@ -3140,10 +3137,10 @@
         <v>42</v>
       </c>
       <c r="AA15" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AB15" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>42</v>
@@ -3152,7 +3149,7 @@
         <v>103</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
@@ -3167,19 +3164,19 @@
         <v>66</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AK15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>42</v>
@@ -3187,7 +3184,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3213,10 +3210,10 @@
         <v>55</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3267,7 +3264,7 @@
         <v>42</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
@@ -3291,7 +3288,7 @@
         <v>42</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>42</v>
@@ -3302,11 +3299,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3328,13 +3325,13 @@
         <v>99</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>144</v>
-      </c>
       <c r="M17" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3375,7 +3372,7 @@
         <v>102</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>42</v>
@@ -3384,7 +3381,7 @@
         <v>103</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3408,7 +3405,7 @@
         <v>42</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>42</v>
@@ -3419,7 +3416,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3445,16 +3442,16 @@
         <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>42</v>
@@ -3479,31 +3476,31 @@
         <v>42</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="X18" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="X18" t="s" s="2">
+      <c r="Y18" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3527,7 +3524,7 @@
         <v>67</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>42</v>
@@ -3538,7 +3535,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3561,19 +3558,19 @@
         <v>54</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>42</v>
@@ -3598,29 +3595,29 @@
         <v>42</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3641,10 +3638,10 @@
         <v>42</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>42</v>
@@ -3655,7 +3652,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3681,16 +3678,16 @@
         <v>69</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>42</v>
@@ -3703,43 +3700,43 @@
         <v>42</v>
       </c>
       <c r="S20" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3760,10 +3757,10 @@
         <v>42</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>42</v>
@@ -3774,7 +3771,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3800,13 +3797,13 @@
         <v>55</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3820,43 +3817,43 @@
         <v>42</v>
       </c>
       <c r="S21" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3877,10 +3874,10 @@
         <v>42</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>42</v>
@@ -3891,7 +3888,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3914,13 +3911,13 @@
         <v>54</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3971,7 +3968,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -3992,10 +3989,10 @@
         <v>42</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>42</v>
@@ -4006,7 +4003,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4029,16 +4026,16 @@
         <v>54</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4088,7 +4085,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4109,10 +4106,10 @@
         <v>42</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>42</v>
@@ -4123,10 +4120,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>42</v>
@@ -4148,19 +4145,19 @@
         <v>54</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>42</v>
@@ -4209,7 +4206,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4224,19 +4221,19 @@
         <v>66</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AK24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>42</v>
@@ -4244,7 +4241,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4270,10 +4267,10 @@
         <v>55</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4324,7 +4321,7 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4348,7 +4345,7 @@
         <v>42</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>42</v>
@@ -4359,11 +4356,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4385,13 +4382,13 @@
         <v>99</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>144</v>
-      </c>
       <c r="M26" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4432,7 +4429,7 @@
         <v>102</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>42</v>
@@ -4441,7 +4438,7 @@
         <v>103</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4465,7 +4462,7 @@
         <v>42</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>42</v>
@@ -4476,7 +4473,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4502,16 +4499,16 @@
         <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>42</v>
@@ -4521,7 +4518,7 @@
         <v>42</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>42</v>
@@ -4536,31 +4533,31 @@
         <v>42</v>
       </c>
       <c r="W27" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="X27" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="X27" t="s" s="2">
+      <c r="Y27" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4584,7 +4581,7 @@
         <v>67</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>42</v>
@@ -4595,7 +4592,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4618,19 +4615,19 @@
         <v>54</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>42</v>
@@ -4640,29 +4637,29 @@
         <v>42</v>
       </c>
       <c r="R28" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="X28" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="S28" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="X28" t="s" s="2">
+      <c r="Y28" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>42</v>
       </c>
@@ -4679,7 +4676,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4700,10 +4697,10 @@
         <v>42</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>42</v>
@@ -4714,7 +4711,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4740,16 +4737,16 @@
         <v>69</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -4762,43 +4759,43 @@
         <v>42</v>
       </c>
       <c r="S29" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4819,10 +4816,10 @@
         <v>42</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>42</v>
@@ -4833,7 +4830,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4859,13 +4856,13 @@
         <v>55</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4879,43 +4876,43 @@
         <v>42</v>
       </c>
       <c r="S30" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -4936,10 +4933,10 @@
         <v>42</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>42</v>
@@ -4950,7 +4947,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4973,13 +4970,13 @@
         <v>54</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5030,7 +5027,7 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5051,10 +5048,10 @@
         <v>42</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>42</v>
@@ -5065,7 +5062,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5088,16 +5085,16 @@
         <v>54</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5147,7 +5144,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5168,10 +5165,10 @@
         <v>42</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>42</v>
@@ -5182,7 +5179,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5205,16 +5202,16 @@
         <v>54</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5240,14 +5237,14 @@
         <v>42</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>42</v>
       </c>
@@ -5264,7 +5261,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5273,25 +5270,25 @@
         <v>53</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>66</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>42</v>
@@ -5299,7 +5296,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5322,16 +5319,16 @@
         <v>54</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5357,14 +5354,14 @@
         <v>42</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
       </c>
@@ -5381,7 +5378,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5390,33 +5387,33 @@
         <v>53</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>66</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>226</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5439,16 +5436,16 @@
         <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5474,13 +5471,13 @@
         <v>42</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>42</v>
@@ -5498,7 +5495,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5516,16 +5513,16 @@
         <v>42</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>42</v>
@@ -5533,7 +5530,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5556,16 +5553,16 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5594,10 +5591,10 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>42</v>
@@ -5615,7 +5612,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5633,28 +5630,28 @@
         <v>42</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>245</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5673,17 +5670,17 @@
         <v>54</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5708,14 +5705,14 @@
         <v>42</v>
       </c>
       <c r="W37" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="X37" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="X37" t="s" s="2">
+      <c r="Y37" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>253</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>42</v>
       </c>
@@ -5732,7 +5729,7 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5747,27 +5744,27 @@
         <v>66</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>259</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5790,16 +5787,16 @@
         <v>54</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5825,14 +5822,14 @@
         <v>42</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>265</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5849,7 +5846,7 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5867,28 +5864,28 @@
         <v>42</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AL38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO38" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>268</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5907,17 +5904,17 @@
         <v>54</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5966,7 +5963,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>53</v>
@@ -5981,19 +5978,19 @@
         <v>66</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AK39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>42</v>
@@ -6001,7 +5998,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6024,16 +6021,16 @@
         <v>54</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6083,7 +6080,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6098,19 +6095,19 @@
         <v>66</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AK40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>42</v>
@@ -6118,7 +6115,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6141,16 +6138,16 @@
         <v>54</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6200,7 +6197,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6215,19 +6212,19 @@
         <v>66</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>42</v>
@@ -6235,7 +6232,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6258,16 +6255,16 @@
         <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6317,7 +6314,7 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6326,7 +6323,7 @@
         <v>53</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>66</v>
@@ -6341,10 +6338,10 @@
         <v>42</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>42</v>
@@ -6352,7 +6349,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6375,13 +6372,13 @@
         <v>54</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6432,7 +6429,7 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6453,13 +6450,13 @@
         <v>42</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>42</v>
@@ -6467,7 +6464,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6490,13 +6487,13 @@
         <v>54</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6547,7 +6544,7 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6571,10 +6568,10 @@
         <v>42</v>
       </c>
       <c r="AM44" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>42</v>
@@ -6582,7 +6579,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6605,13 +6602,13 @@
         <v>54</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6662,7 +6659,7 @@
         <v>42</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6683,13 +6680,13 @@
         <v>42</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>42</v>
@@ -6697,7 +6694,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6720,13 +6717,13 @@
         <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6777,7 +6774,7 @@
         <v>42</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6789,19 +6786,19 @@
         <v>42</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>42</v>
@@ -6812,7 +6809,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6838,10 +6835,10 @@
         <v>55</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6892,7 +6889,7 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -6916,7 +6913,7 @@
         <v>42</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>42</v>
@@ -6927,11 +6924,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6953,13 +6950,13 @@
         <v>99</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>144</v>
-      </c>
       <c r="M48" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7009,7 +7006,7 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7033,7 +7030,7 @@
         <v>42</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>42</v>
@@ -7044,11 +7041,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7070,16 +7067,16 @@
         <v>99</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="M49" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -7128,7 +7125,7 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7163,7 +7160,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7186,13 +7183,13 @@
         <v>42</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7219,14 +7216,14 @@
         <v>42</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>42</v>
       </c>
@@ -7243,7 +7240,7 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7252,7 +7249,7 @@
         <v>53</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>66</v>
@@ -7261,13 +7258,13 @@
         <v>42</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>42</v>
@@ -7278,7 +7275,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7301,13 +7298,13 @@
         <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7358,7 +7355,7 @@
         <v>42</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7367,7 +7364,7 @@
         <v>44</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>66</v>
@@ -7382,7 +7379,7 @@
         <v>42</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>42</v>
@@ -7393,7 +7390,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7416,13 +7413,13 @@
         <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7449,14 +7446,14 @@
         <v>42</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>352</v>
-      </c>
       <c r="Z52" t="s" s="2">
         <v>42</v>
       </c>
@@ -7473,7 +7470,7 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7497,7 +7494,7 @@
         <v>42</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>42</v>
@@ -7508,7 +7505,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7531,16 +7528,16 @@
         <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7590,7 +7587,7 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7602,19 +7599,19 @@
         <v>42</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>42</v>
@@ -7625,7 +7622,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7651,10 +7648,10 @@
         <v>55</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7705,7 +7702,7 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -7729,7 +7726,7 @@
         <v>42</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>42</v>
@@ -7740,11 +7737,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7766,13 +7763,13 @@
         <v>99</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>144</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7822,7 +7819,7 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -7846,7 +7843,7 @@
         <v>42</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>42</v>
@@ -7857,11 +7854,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7883,16 +7880,16 @@
         <v>99</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L56" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="M56" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>42</v>
@@ -7941,7 +7938,7 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -7976,7 +7973,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7999,13 +7996,13 @@
         <v>54</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8032,14 +8029,14 @@
         <v>42</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>367</v>
-      </c>
       <c r="Z57" t="s" s="2">
         <v>42</v>
       </c>
@@ -8056,7 +8053,7 @@
         <v>42</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8065,25 +8062,25 @@
         <v>44</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>66</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AK57" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>42</v>
@@ -8091,7 +8088,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8114,13 +8111,13 @@
         <v>54</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8171,7 +8168,7 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8180,7 +8177,7 @@
         <v>44</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>66</v>
@@ -8195,10 +8192,10 @@
         <v>42</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>42</v>
@@ -8206,7 +8203,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8229,13 +8226,13 @@
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8286,7 +8283,7 @@
         <v>42</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8301,16 +8298,16 @@
         <v>66</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AK59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>42</v>

--- a/StructureDefinition-cdm-condition.xlsx
+++ b/StructureDefinition-cdm-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-condition.xlsx
+++ b/StructureDefinition-cdm-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-condition.xlsx
+++ b/StructureDefinition-cdm-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-condition.xlsx
+++ b/StructureDefinition-cdm-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-condition.xlsx
+++ b/StructureDefinition-cdm-condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="416">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,16 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T17:36:56+00:00</t>
+    <t>2022-01-21T20:46:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
+    <t>Alvearie Team</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>
@@ -1453,7 +1456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1529,90 +1532,84 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1676,6895 +1673,6895 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="AO34" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AF58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>403</v>
-      </c>
       <c r="AO58" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-cdm-condition.xlsx
+++ b/StructureDefinition-cdm-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>IBM Health Data Connect Common Data Model definition of what fields we currently define for a condition</t>
+    <t>Health Data Connect Common Data Model definition of what fields we currently define for a condition</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-cdm-condition.xlsx
+++ b/StructureDefinition-cdm-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-condition.xlsx
+++ b/StructureDefinition-cdm-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -449,6 +449,16 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>conditionDiseaseCourse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/condition-disease-course}
+</t>
+  </si>
+  <si>
+    <t>Clinical course of the disease (how the disease behaves over time), such as acute versus chronic</t>
+  </si>
+  <si>
     <t>problemType</t>
   </si>
   <si>
@@ -467,16 +477,6 @@
   </si>
   <si>
     <t>Problem priority code</t>
-  </si>
-  <si>
-    <t>problemClinicalCourse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/problem-clinical-course}
-</t>
-  </si>
-  <si>
-    <t>Problem clinical course code</t>
   </si>
   <si>
     <t>recorderFacility</t>
@@ -1629,44 +1629,44 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="35.88671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.6796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.27734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.70703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.7109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="68.20703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="222.09765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="222.1015625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>

--- a/StructureDefinition-cdm-condition.xlsx
+++ b/StructureDefinition-cdm-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-condition.xlsx
+++ b/StructureDefinition-cdm-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-condition.xlsx
+++ b/StructureDefinition-cdm-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-condition.xlsx
+++ b/StructureDefinition-cdm-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-condition.xlsx
+++ b/StructureDefinition-cdm-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-condition.xlsx
+++ b/StructureDefinition-cdm-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-condition.xlsx
+++ b/StructureDefinition-cdm-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-condition.xlsx
+++ b/StructureDefinition-cdm-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-condition.xlsx
+++ b/StructureDefinition-cdm-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-condition.xlsx
+++ b/StructureDefinition-cdm-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-condition.xlsx
+++ b/StructureDefinition-cdm-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-condition.xlsx
+++ b/StructureDefinition-cdm-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-condition.xlsx
+++ b/StructureDefinition-cdm-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-condition.xlsx
+++ b/StructureDefinition-cdm-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-condition.xlsx
+++ b/StructureDefinition-cdm-condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="417">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -283,271 +283,275 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Condition.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Condition.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Condition.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Condition.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Condition.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>Condition.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>conditionDiseaseCourse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/condition-disease-course}
+</t>
+  </si>
+  <si>
+    <t>Clinical course of the disease (how the disease behaves over time), such as acute versus chronic</t>
+  </si>
+  <si>
+    <t>problemType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/problem-type}
+</t>
+  </si>
+  <si>
+    <t>Problem type code</t>
+  </si>
+  <si>
+    <t>problemPriority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/problem-priority}
+</t>
+  </si>
+  <si>
+    <t>Problem priority code</t>
+  </si>
+  <si>
+    <t>recorderFacility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/recorder-facility}
+</t>
+  </si>
+  <si>
+    <t>Facility where condition was recorded</t>
+  </si>
+  <si>
+    <t>Condition.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Condition.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>External Ids for this condition</t>
+  </si>
+  <si>
+    <t>Business identifiers assigned to this condition by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>Allows identification of the condition as it is known by various participating systems and in a way that remains consistent across servers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:type}
+</t>
+  </si>
+  <si>
+    <t>Slice based on entry system</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Condition.identifier.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Condition.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Condition.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Condition.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Condition.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Condition.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Condition.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>conditionDiseaseCourse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/condition-disease-course}
-</t>
-  </si>
-  <si>
-    <t>Clinical course of the disease (how the disease behaves over time), such as acute versus chronic</t>
-  </si>
-  <si>
-    <t>problemType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/problem-type}
-</t>
-  </si>
-  <si>
-    <t>Problem type code</t>
-  </si>
-  <si>
-    <t>problemPriority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/problem-priority}
-</t>
-  </si>
-  <si>
-    <t>Problem priority code</t>
-  </si>
-  <si>
-    <t>recorderFacility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/recorder-facility}
-</t>
-  </si>
-  <si>
-    <t>Facility where condition was recorded</t>
-  </si>
-  <si>
-    <t>Condition.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Condition.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>External Ids for this condition</t>
-  </si>
-  <si>
-    <t>Business identifiers assigned to this condition by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>Allows identification of the condition as it is known by various participating systems and in a way that remains consistent across servers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:type}
-</t>
-  </si>
-  <si>
-    <t>Slice based on entry system</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Condition.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3455,13 +3459,13 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3512,7 +3516,7 @@
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3536,7 +3540,7 @@
         <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>76</v>
@@ -3547,7 +3551,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3573,10 +3577,10 @@
         <v>133</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>156</v>
@@ -3620,7 +3624,7 @@
         <v>136</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>76</v>
@@ -3629,7 +3633,7 @@
         <v>137</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3653,7 +3657,7 @@
         <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>76</v>
@@ -3664,7 +3668,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3690,16 +3694,16 @@
         <v>109</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>76</v>
@@ -3724,13 +3728,13 @@
         <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>76</v>
@@ -3748,7 +3752,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3772,7 +3776,7 @@
         <v>101</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>76</v>
@@ -3783,7 +3787,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3806,19 +3810,19 @@
         <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>76</v>
@@ -3843,11 +3847,11 @@
         <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>76</v>
@@ -3865,7 +3869,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3886,10 +3890,10 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>76</v>
@@ -3900,7 +3904,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3926,16 +3930,16 @@
         <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -3948,7 +3952,7 @@
         <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>76</v>
@@ -3984,7 +3988,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4005,10 +4009,10 @@
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>76</v>
@@ -4019,7 +4023,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4042,16 +4046,16 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4065,7 +4069,7 @@
         <v>76</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>76</v>
@@ -4101,7 +4105,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4122,10 +4126,10 @@
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>76</v>
@@ -4136,7 +4140,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4159,13 +4163,13 @@
         <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4216,7 +4220,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4237,10 +4241,10 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>76</v>
@@ -4251,7 +4255,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4274,16 +4278,16 @@
         <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4333,7 +4337,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4354,10 +4358,10 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>76</v>
@@ -4371,7 +4375,7 @@
         <v>159</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>76</v>
@@ -4512,13 +4516,13 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4569,7 +4573,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4593,7 +4597,7 @@
         <v>76</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>76</v>
@@ -4604,7 +4608,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4630,10 +4634,10 @@
         <v>133</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>156</v>
@@ -4677,7 +4681,7 @@
         <v>136</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>76</v>
@@ -4686,7 +4690,7 @@
         <v>137</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4710,7 +4714,7 @@
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>76</v>
@@ -4721,7 +4725,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4747,16 +4751,16 @@
         <v>109</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
@@ -4766,7 +4770,7 @@
         <v>76</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>76</v>
@@ -4781,13 +4785,13 @@
         <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -4805,7 +4809,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4829,7 +4833,7 @@
         <v>101</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>76</v>
@@ -4840,7 +4844,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4863,19 +4867,19 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -4885,7 +4889,7 @@
         <v>76</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>76</v>
@@ -4900,13 +4904,13 @@
         <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>76</v>
@@ -4924,7 +4928,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4945,10 +4949,10 @@
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>76</v>
@@ -4959,7 +4963,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4985,16 +4989,16 @@
         <v>103</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -5007,7 +5011,7 @@
         <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>76</v>
@@ -5043,7 +5047,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5064,10 +5068,10 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>76</v>
@@ -5078,7 +5082,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5101,16 +5105,16 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5124,7 +5128,7 @@
         <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>76</v>
@@ -5160,7 +5164,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5181,10 +5185,10 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>76</v>
@@ -5195,7 +5199,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5218,13 +5222,13 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5275,7 +5279,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5296,10 +5300,10 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>76</v>
@@ -5310,7 +5314,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5333,16 +5337,16 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5392,7 +5396,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5413,10 +5417,10 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>76</v>
@@ -5427,7 +5431,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5450,16 +5454,16 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5485,13 +5489,13 @@
         <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>76</v>
@@ -5509,7 +5513,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5518,25 +5522,25 @@
         <v>87</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>76</v>
@@ -5544,7 +5548,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5567,16 +5571,16 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5602,13 +5606,13 @@
         <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>76</v>
@@ -5626,7 +5630,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5635,33 +5639,33 @@
         <v>87</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5684,16 +5688,16 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5719,13 +5723,13 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -5743,7 +5747,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5761,16 +5765,16 @@
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>76</v>
@@ -5778,7 +5782,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5801,16 +5805,16 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5839,10 +5843,10 @@
         <v>113</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>76</v>
@@ -5860,7 +5864,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5878,28 +5882,28 @@
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5918,17 +5922,17 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -5953,13 +5957,13 @@
         <v>76</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>76</v>
@@ -5977,7 +5981,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5992,27 +5996,27 @@
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6035,16 +6039,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6070,13 +6074,13 @@
         <v>76</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>76</v>
@@ -6094,7 +6098,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6112,28 +6116,28 @@
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6152,17 +6156,17 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>76</v>
@@ -6211,7 +6215,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>87</v>
@@ -6226,19 +6230,19 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>76</v>
@@ -6246,7 +6250,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6269,16 +6273,16 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6328,7 +6332,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6343,19 +6347,19 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>76</v>
@@ -6363,7 +6367,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6386,16 +6390,16 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6445,7 +6449,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6460,19 +6464,19 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>76</v>
@@ -6480,7 +6484,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6503,16 +6507,16 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6562,7 +6566,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6571,7 +6575,7 @@
         <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>100</v>
@@ -6586,10 +6590,10 @@
         <v>76</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>76</v>
@@ -6597,7 +6601,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6620,13 +6624,13 @@
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6677,7 +6681,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6698,13 +6702,13 @@
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>76</v>
@@ -6712,7 +6716,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6735,13 +6739,13 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6792,7 +6796,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6816,10 +6820,10 @@
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>76</v>
@@ -6827,7 +6831,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6850,13 +6854,13 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6907,7 +6911,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6928,13 +6932,13 @@
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>76</v>
@@ -6942,7 +6946,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6965,13 +6969,13 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7022,7 +7026,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7034,7 +7038,7 @@
         <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>76</v>
@@ -7046,7 +7050,7 @@
         <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>76</v>
@@ -7057,7 +7061,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7080,13 +7084,13 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7137,7 +7141,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7161,7 +7165,7 @@
         <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>76</v>
@@ -7172,7 +7176,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7198,10 +7202,10 @@
         <v>133</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>156</v>
@@ -7254,7 +7258,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7278,7 +7282,7 @@
         <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>76</v>
@@ -7289,11 +7293,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7315,10 +7319,10 @@
         <v>133</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>156</v>
@@ -7373,7 +7377,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7408,7 +7412,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7431,13 +7435,13 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7464,13 +7468,13 @@
         <v>76</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>76</v>
@@ -7488,7 +7492,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7497,7 +7501,7 @@
         <v>87</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>100</v>
@@ -7506,13 +7510,13 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>76</v>
@@ -7523,7 +7527,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7546,13 +7550,13 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7603,7 +7607,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7612,7 +7616,7 @@
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>100</v>
@@ -7627,7 +7631,7 @@
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>76</v>
@@ -7638,7 +7642,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7661,13 +7665,13 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7694,13 +7698,13 @@
         <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>76</v>
@@ -7718,7 +7722,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7742,7 +7746,7 @@
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>76</v>
@@ -7753,7 +7757,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7776,16 +7780,16 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7835,7 +7839,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7847,7 +7851,7 @@
         <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>76</v>
@@ -7859,7 +7863,7 @@
         <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>76</v>
@@ -7870,7 +7874,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7893,13 +7897,13 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7950,7 +7954,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7974,7 +7978,7 @@
         <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>76</v>
@@ -7985,7 +7989,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8011,10 +8015,10 @@
         <v>133</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>156</v>
@@ -8067,7 +8071,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8091,7 +8095,7 @@
         <v>76</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>76</v>
@@ -8102,11 +8106,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8128,10 +8132,10 @@
         <v>133</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>156</v>
@@ -8186,7 +8190,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8221,7 +8225,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8244,13 +8248,13 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8277,13 +8281,13 @@
         <v>76</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>76</v>
@@ -8301,7 +8305,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8310,25 +8314,25 @@
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>76</v>
@@ -8336,7 +8340,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8359,13 +8363,13 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8416,7 +8420,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8425,7 +8429,7 @@
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>100</v>
@@ -8440,10 +8444,10 @@
         <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>76</v>
@@ -8451,7 +8455,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8474,13 +8478,13 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8531,7 +8535,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8546,16 +8550,16 @@
         <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-cdm-condition.xlsx
+++ b/StructureDefinition-cdm-condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="416">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/cdm-condition</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-condition</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Health Data Connect Common Data Model definition of what fields we currently define for a condition</t>
+    <t>LinuxForHealth Common Data Model definition of what fields we currently define for a condition</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -256,10 +256,6 @@
   </si>
   <si>
     <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.</t>
-  </si>
-  <si>
-    <t>con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
-con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -302,7 +298,7 @@
     <t>Condition.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+    <t xml:space="preserve">Meta {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-meta}
 </t>
   </si>
   <si>
@@ -452,7 +448,7 @@
     <t>conditionDiseaseCourse</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/condition-disease-course}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/condition-disease-course}
 </t>
   </si>
   <si>
@@ -462,7 +458,7 @@
     <t>problemType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/problem-type}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/problem-type}
 </t>
   </si>
   <si>
@@ -472,7 +468,7 @@
     <t>problemPriority</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/problem-priority}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/problem-priority}
 </t>
   </si>
   <si>
@@ -482,7 +478,7 @@
     <t>recorderFacility</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/recorder-facility}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/recorder-facility}
 </t>
   </si>
   <si>
@@ -633,7 +629,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/identifier-type</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -748,7 +744,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://ibm.com/fhir/cdm/CodeSystem/identifier-type"/&gt;
+    &lt;system value="http://linuxforhealth.org/fhir/cdm/CodeSystem/identifier-type"/&gt;
     &lt;code value="SSRI"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1656,7 +1652,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.7109375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.70703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1894,19 +1890,19 @@
         <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>76</v>
@@ -1917,7 +1913,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1928,28 +1924,28 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1999,13 +1995,13 @@
         <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>76</v>
@@ -2034,7 +2030,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2045,7 +2041,7 @@
         <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>76</v>
@@ -2057,13 +2053,13 @@
         <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2114,31 +2110,31 @@
         <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH4" t="s" s="2">
+      <c r="AI4" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AI4" t="s" s="2">
+      <c r="AJ4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>76</v>
@@ -2149,7 +2145,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2160,28 +2156,28 @@
         <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2231,19 +2227,19 @@
         <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>76</v>
@@ -2266,7 +2262,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2277,7 +2273,7 @@
         <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>76</v>
@@ -2289,16 +2285,16 @@
         <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2324,43 +2320,43 @@
         <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>76</v>
@@ -2383,18 +2379,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>76</v>
@@ -2406,16 +2402,16 @@
         <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2465,31 +2461,31 @@
         <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>76</v>
@@ -2500,11 +2496,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2523,16 +2519,16 @@
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2582,7 +2578,7 @@
         <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
@@ -2606,7 +2602,7 @@
         <v>76</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>76</v>
@@ -2617,7 +2613,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2640,13 +2636,13 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2685,17 +2681,17 @@
         <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -2707,7 +2703,7 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>76</v>
@@ -2730,10 +2726,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>76</v>
@@ -2743,7 +2739,7 @@
         <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>76</v>
@@ -2755,13 +2751,13 @@
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>142</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2812,7 +2808,7 @@
         <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -2821,10 +2817,10 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>76</v>
@@ -2847,10 +2843,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>76</v>
@@ -2860,7 +2856,7 @@
         <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>76</v>
@@ -2872,13 +2868,13 @@
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2929,7 +2925,7 @@
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -2938,10 +2934,10 @@
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>76</v>
@@ -2964,10 +2960,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>76</v>
@@ -2977,7 +2973,7 @@
         <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>76</v>
@@ -2989,13 +2985,13 @@
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>148</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3046,7 +3042,7 @@
         <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3055,10 +3051,10 @@
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>76</v>
@@ -3081,10 +3077,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>76</v>
@@ -3094,7 +3090,7 @@
         <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>76</v>
@@ -3106,13 +3102,13 @@
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3163,7 +3159,7 @@
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -3172,10 +3168,10 @@
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>76</v>
@@ -3198,11 +3194,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3215,25 +3211,25 @@
         <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>76</v>
@@ -3282,7 +3278,7 @@
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3294,7 +3290,7 @@
         <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>76</v>
@@ -3306,7 +3302,7 @@
         <v>76</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>76</v>
@@ -3317,7 +3313,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3325,7 +3321,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>78</v>
@@ -3337,22 +3333,22 @@
         <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>76</v>
@@ -3389,19 +3385,19 @@
         <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AB15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AB15" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="AC15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3413,22 +3409,22 @@
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AK15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>76</v>
@@ -3436,7 +3432,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3447,7 +3443,7 @@
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>76</v>
@@ -3459,13 +3455,13 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3516,31 +3512,31 @@
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>76</v>
@@ -3551,11 +3547,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3574,16 +3570,16 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="M17" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3621,19 +3617,19 @@
         <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD17" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AB17" t="s" s="2">
+      <c r="AE17" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3645,7 +3641,7 @@
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>76</v>
@@ -3657,7 +3653,7 @@
         <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>76</v>
@@ -3668,7 +3664,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3679,31 +3675,31 @@
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H18" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I18" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>76</v>
@@ -3728,55 +3724,55 @@
         <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="X18" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="X18" t="s" s="2">
+      <c r="Y18" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE18" t="s" s="2">
+      <c r="AF18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>76</v>
@@ -3787,7 +3783,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3798,31 +3794,31 @@
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>76</v>
@@ -3847,53 +3843,53 @@
         <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE19" t="s" s="2">
+      <c r="AF19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="AM19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>76</v>
@@ -3904,7 +3900,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3912,34 +3908,34 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F20" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -3952,67 +3948,67 @@
         <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="T20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE20" t="s" s="2">
+      <c r="AF20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AF20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>76</v>
@@ -4023,7 +4019,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4031,31 +4027,31 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F21" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4069,67 +4065,67 @@
         <v>76</v>
       </c>
       <c r="S21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="T21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE21" t="s" s="2">
+      <c r="AF21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>76</v>
@@ -4140,7 +4136,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4151,25 +4147,25 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4220,31 +4216,31 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AF22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>76</v>
@@ -4255,7 +4251,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4266,28 +4262,28 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4337,31 +4333,31 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>76</v>
@@ -4372,10 +4368,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>76</v>
@@ -4385,31 +4381,31 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J24" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -4458,7 +4454,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4470,22 +4466,22 @@
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AK24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>76</v>
@@ -4493,7 +4489,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4504,7 +4500,7 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>76</v>
@@ -4516,13 +4512,13 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4573,31 +4569,31 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>76</v>
@@ -4608,11 +4604,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4631,16 +4627,16 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="M26" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4678,19 +4674,19 @@
         <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD26" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AB26" t="s" s="2">
+      <c r="AE26" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4702,7 +4698,7 @@
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>76</v>
@@ -4714,7 +4710,7 @@
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>76</v>
@@ -4725,7 +4721,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4736,31 +4732,31 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H27" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
@@ -4770,7 +4766,7 @@
         <v>76</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>76</v>
@@ -4785,55 +4781,55 @@
         <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="X27" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="X27" t="s" s="2">
+      <c r="Y27" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE27" t="s" s="2">
+      <c r="AF27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>76</v>
@@ -4844,7 +4840,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4852,34 +4848,34 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F28" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J28" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -4889,29 +4885,29 @@
         <v>76</v>
       </c>
       <c r="R28" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="X28" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="S28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="X28" t="s" s="2">
+      <c r="Y28" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>237</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4928,31 +4924,31 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="AM28" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>76</v>
@@ -4963,7 +4959,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4974,31 +4970,31 @@
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -5011,67 +5007,67 @@
         <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="T29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE29" t="s" s="2">
+      <c r="AF29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>76</v>
@@ -5082,7 +5078,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5093,28 +5089,28 @@
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5128,67 +5124,67 @@
         <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="T30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE30" t="s" s="2">
+      <c r="AF30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AF30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>76</v>
@@ -5199,7 +5195,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5210,25 +5206,25 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J31" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5279,31 +5275,31 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>76</v>
@@ -5314,7 +5310,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5325,28 +5321,28 @@
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J32" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5396,31 +5392,31 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>76</v>
@@ -5431,7 +5427,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5442,28 +5438,28 @@
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H33" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I33" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5489,58 +5485,58 @@
         <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH33" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH33" t="s" s="2">
+      <c r="AI33" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AI33" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
+      <c r="AK33" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>76</v>
@@ -5548,7 +5544,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5559,28 +5555,28 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H34" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I34" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5606,66 +5602,66 @@
         <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH34" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH34" t="s" s="2">
+      <c r="AI34" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AI34" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>260</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5688,16 +5684,16 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5723,13 +5719,13 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -5747,7 +5743,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5759,22 +5755,22 @@
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>76</v>
@@ -5782,7 +5778,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5793,7 +5789,7 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>76</v>
@@ -5805,16 +5801,16 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5840,99 +5836,99 @@
         <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>279</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -5957,66 +5953,66 @@
         <v>76</v>
       </c>
       <c r="W37" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="X37" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="X37" t="s" s="2">
+      <c r="Y37" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="Y37" t="s" s="2">
+      <c r="Z37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
+      <c r="AK37" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>293</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6036,19 +6032,19 @@
         <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6074,14 +6070,14 @@
         <v>76</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>299</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>76</v>
       </c>
@@ -6098,7 +6094,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6110,63 +6106,63 @@
         <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AL38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO38" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F39" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J39" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>76</v>
@@ -6215,34 +6211,34 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AK39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>76</v>
@@ -6250,7 +6246,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6261,28 +6257,28 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6332,34 +6328,34 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AK40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>76</v>
@@ -6367,7 +6363,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6378,28 +6374,28 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J41" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6449,34 +6445,34 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>76</v>
@@ -6484,7 +6480,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6495,7 +6491,7 @@
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>76</v>
@@ -6507,16 +6503,16 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6566,34 +6562,34 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AI42" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>76</v>
@@ -6601,7 +6597,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6612,25 +6608,25 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J43" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6681,19 +6677,19 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>76</v>
@@ -6702,13 +6698,13 @@
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>76</v>
@@ -6716,7 +6712,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6727,25 +6723,25 @@
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J44" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6796,19 +6792,19 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>76</v>
@@ -6820,10 +6816,10 @@
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>76</v>
@@ -6831,7 +6827,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6842,25 +6838,25 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6911,19 +6907,19 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>76</v>
@@ -6932,13 +6928,13 @@
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>76</v>
@@ -6946,7 +6942,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6969,13 +6965,13 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7026,7 +7022,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7038,19 +7034,19 @@
         <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>76</v>
@@ -7061,7 +7057,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7072,7 +7068,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>76</v>
@@ -7084,13 +7080,13 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7141,31 +7137,31 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>76</v>
@@ -7176,11 +7172,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7199,16 +7195,16 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="M48" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7258,7 +7254,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7270,7 +7266,7 @@
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>76</v>
@@ -7282,7 +7278,7 @@
         <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>76</v>
@@ -7293,11 +7289,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7310,25 +7306,25 @@
         <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="M49" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>76</v>
@@ -7377,7 +7373,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7389,7 +7385,7 @@
         <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>76</v>
@@ -7401,7 +7397,7 @@
         <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>76</v>
@@ -7412,7 +7408,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7423,7 +7419,7 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>76</v>
@@ -7435,13 +7431,13 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7468,55 +7464,55 @@
         <v>76</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="Y50" t="s" s="2">
+      <c r="Z50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH50" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH50" t="s" s="2">
+      <c r="AI50" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AI50" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="AL50" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>76</v>
@@ -7527,7 +7523,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7550,13 +7546,13 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7607,7 +7603,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7616,10 +7612,10 @@
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>76</v>
@@ -7631,7 +7627,7 @@
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>76</v>
@@ -7642,7 +7638,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7653,7 +7649,7 @@
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>76</v>
@@ -7665,13 +7661,13 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7698,55 +7694,55 @@
         <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="Y52" t="s" s="2">
+      <c r="Z52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>76</v>
@@ -7757,7 +7753,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7780,16 +7776,16 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7839,7 +7835,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7851,19 +7847,19 @@
         <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>76</v>
@@ -7874,7 +7870,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7885,7 +7881,7 @@
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>76</v>
@@ -7897,13 +7893,13 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7954,31 +7950,31 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>76</v>
@@ -7989,11 +7985,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8012,16 +8008,16 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8071,7 +8067,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8083,7 +8079,7 @@
         <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>76</v>
@@ -8095,7 +8091,7 @@
         <v>76</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>76</v>
@@ -8106,11 +8102,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8123,25 +8119,25 @@
         <v>76</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L56" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="M56" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -8190,7 +8186,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8202,7 +8198,7 @@
         <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>76</v>
@@ -8214,7 +8210,7 @@
         <v>76</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>76</v>
@@ -8225,7 +8221,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8245,16 +8241,16 @@
         <v>76</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8281,14 +8277,14 @@
         <v>76</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="Z57" t="s" s="2">
         <v>76</v>
       </c>
@@ -8305,7 +8301,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8314,25 +8310,25 @@
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AI57" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
+      <c r="AK57" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AK57" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>76</v>
@@ -8340,7 +8336,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8360,16 +8356,16 @@
         <v>76</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8420,7 +8416,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8429,10 +8425,10 @@
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>76</v>
@@ -8444,10 +8440,10 @@
         <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>76</v>
@@ -8455,7 +8451,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8478,13 +8474,13 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8535,7 +8531,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8547,19 +8543,19 @@
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AK59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>76</v>
